--- a/NumerosSelecionadosAcumulado6.xlsx
+++ b/NumerosSelecionadosAcumulado6.xlsx
@@ -880,10 +880,10 @@
         <v>928333095</v>
       </c>
       <c r="C11" t="str">
-        <v>32374647382</v>
+        <v>31985952837</v>
       </c>
       <c r="D11" t="str">
-        <v>79836434769</v>
+        <v>80100173348</v>
       </c>
       <c r="E11">
         <v>17</v>
